--- a/MEMO/일정초안.xlsx
+++ b/MEMO/일정초안.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\SeoulITHongUniv\PandaVillage\MEMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEB9C880-E639-42C1-B0B0-8B306B3E7503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA1D80F-32A4-40A6-A4C6-8F7C2C5FF271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" xr2:uid="{B1FC1A9D-9DC6-4D78-96DA-D786D7283363}"/>
   </bookViews>
@@ -119,13 +119,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>444934</xdr:colOff>
+      <xdr:colOff>454459</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>65339</xdr:rowOff>
     </xdr:to>
@@ -150,7 +150,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1190625" y="66675"/>
+          <a:off x="1200150" y="66675"/>
           <a:ext cx="21923809" cy="10685714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -894,15 +894,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="2000"/>
-            <a:t>회의 저녁 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
-            <a:t>9</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="2000"/>
-            <a:t>시</a:t>
+            <a:t>맵색칠</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
         </a:p>
@@ -1212,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE3A2F9-5CE3-433B-AF47-744C5ECC74E9}">
   <dimension ref="F13:AV54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH53" sqref="AH53"/>
+    <sheetView tabSelected="1" topLeftCell="T25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AW67" sqref="AW67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
